--- a/first_project/Book1.xlsx
+++ b/first_project/Book1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB49"/>
+  <dimension ref="A1:BB51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,127 +479,127 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>勘定科目コード</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
           <t>勘定科目</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>計画単価</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>計画数</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>計画合計金額</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>見積単価</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>見積数</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>見積合計金額</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>見積書リンク</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>稟議書単価</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>稟議書数</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>稟議書合計</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>稟議書No.</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>稟議書リンク</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>ワークフローNo.</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>契約金額</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>契約書No.</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>契約書リンク</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>押捺稟議No.</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>押捺稟議リンク</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>注文単価</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>注文数</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>注文合計金額</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>注文書リンク</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>納品日期限</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>検収日期限</t>
         </is>
       </c>
       <c r="AK1" t="inlineStr">
@@ -695,7 +695,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -737,22 +737,36 @@
           <t>ミツイワ㈱</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>2022-10-13 02:15:38.610467</t>
+          <t>2022-10-18 13:02:51.003324</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
@@ -768,14 +782,13 @@
           <t>伊豆猛</t>
         </is>
       </c>
-      <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -817,104 +830,101 @@
           <t>ミツイワ㈱</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>26400</v>
       </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
       <c r="O3" t="n">
-        <v>26400</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>26400</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>26400</v>
       </c>
       <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
         <v>26400</v>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>26400</v>
       </c>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
       <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
         <v>26400</v>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z3" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AA3" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AE3" t="n">
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AF3" t="n">
         <v>26400</v>
       </c>
-      <c r="AF3" t="n">
-        <v>1</v>
-      </c>
       <c r="AG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="n">
         <v>26400</v>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>2022-05-30 06:00:00</t>
+          <t>2022-05-29 03:00:00</t>
         </is>
       </c>
       <c r="AL3" t="n">
@@ -955,7 +965,7 @@
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>2022-10-12 04:03:35.818562</t>
+          <t>2022-10-11 01:03:35.818562</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
@@ -982,7 +992,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1024,103 +1034,101 @@
           <t>ミツイワ㈱★</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>3598752</v>
       </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
       <c r="O4" t="n">
-        <v>3598752</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>3598752</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>3598752</v>
       </c>
       <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
         <v>3598752</v>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>3598752</v>
       </c>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
       <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
         <v>3598752</v>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z4" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AA4" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AE4" t="n">
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AF4" t="n">
         <v>3598752</v>
       </c>
-      <c r="AF4" t="n">
-        <v>1</v>
-      </c>
       <c r="AG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="n">
         <v>3598752</v>
       </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>2022-05-30 06:00:00</t>
+          <t>2022-05-29 03:00:00</t>
         </is>
       </c>
       <c r="AL4" t="n">
@@ -1161,7 +1169,7 @@
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
@@ -1188,7 +1196,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1230,103 +1238,101 @@
           <t>ミツイワ㈱★</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>52800</v>
       </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
       <c r="O5" t="n">
-        <v>52800</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>52800</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>52800</v>
       </c>
       <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
         <v>52800</v>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>52800</v>
       </c>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
       <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="n">
         <v>52800</v>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z5" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AA5" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AE5" t="n">
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AF5" t="n">
         <v>52800</v>
       </c>
-      <c r="AF5" t="n">
-        <v>1</v>
-      </c>
       <c r="AG5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH5" t="n">
         <v>52800</v>
       </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>2022-06-29 12:00:00</t>
+          <t>2022-06-28 09:00:00</t>
         </is>
       </c>
       <c r="AL5" t="n">
@@ -1367,7 +1373,7 @@
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
@@ -1394,7 +1400,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1436,103 +1442,101 @@
           <t>ミツイワ㈱★</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>3260510</v>
-      </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="O6" t="n">
-        <v>3260510</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>3260510</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="R6" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="S6" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="T6" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="T6" t="n">
-        <v>3260510</v>
-      </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="V6" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="W6" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z6" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AA6" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AE6" t="n">
-        <v>3260510</v>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="AG6" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>3260510</v>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>2022-06-29 12:00:00</t>
+          <t>2022-06-28 09:00:00</t>
         </is>
       </c>
       <c r="AL6" t="n">
@@ -1573,7 +1577,7 @@
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
@@ -1600,7 +1604,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -1642,67 +1646,65 @@
           <t>ミツイワ㈱★</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z7" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AA7" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>2022-07-28 12:00:00</t>
+          <t>2022-07-27 09:00:00</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
@@ -1725,7 +1727,7 @@
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
@@ -1752,7 +1754,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -1794,67 +1796,65 @@
           <t>ミツイワ㈱★</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z8" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AA8" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>2022-08-30 12:00:00</t>
+          <t>2022-08-29 09:00:00</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
@@ -1904,7 +1904,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -1946,67 +1946,65 @@
           <t>ミツイワ㈱★</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z9" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AA9" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>2022-09-29 12:00:00</t>
+          <t>2022-09-28 09:00:00</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
@@ -2029,7 +2027,7 @@
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
@@ -2056,7 +2054,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -2098,67 +2096,65 @@
           <t>ミツイワ㈱★</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z10" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AA10" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>2022-10-26 12:00:00</t>
+          <t>2022-10-25 09:00:00</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
@@ -2181,7 +2177,7 @@
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
@@ -2208,7 +2204,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2250,67 +2246,65 @@
           <t>ミツイワ㈱★</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z11" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AA11" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>2022-11-29 12:00:00</t>
+          <t>2022-11-28 09:00:00</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
@@ -2333,7 +2327,7 @@
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
@@ -2360,7 +2354,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2402,67 +2396,65 @@
           <t>ミツイワ㈱★</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z12" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA12" t="inlineStr">
+      <c r="AA12" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>2022-12-27 12:00:00</t>
+          <t>2022-12-26 09:00:00</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
@@ -2485,7 +2477,7 @@
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
@@ -2512,7 +2504,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -2554,67 +2546,65 @@
           <t>ミツイワ㈱★</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z13" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA13" t="inlineStr">
+      <c r="AA13" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>2023-01-30 12:00:00</t>
+          <t>2023-01-29 09:00:00</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
@@ -2637,7 +2627,7 @@
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
@@ -2664,7 +2654,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -2706,103 +2696,101 @@
           <t>ミツイワ㈱★</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>4589633</v>
       </c>
-      <c r="N14" t="n">
-        <v>1</v>
-      </c>
       <c r="O14" t="n">
-        <v>4589633</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>4589633</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>4589633</v>
       </c>
       <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
         <v>4589633</v>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>4589633</v>
       </c>
-      <c r="U14" t="n">
-        <v>1</v>
-      </c>
       <c r="V14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" t="n">
         <v>4589633</v>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z14" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA14" t="inlineStr">
+      <c r="AA14" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AE14" t="n">
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AF14" t="n">
         <v>4589633</v>
       </c>
-      <c r="AF14" t="n">
-        <v>1</v>
-      </c>
       <c r="AG14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH14" t="n">
         <v>4589633</v>
       </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>2022-05-30 06:00:00</t>
+          <t>2022-05-29 03:00:00</t>
         </is>
       </c>
       <c r="AL14" t="n">
@@ -2843,7 +2831,7 @@
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
@@ -2870,7 +2858,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -2912,103 +2900,101 @@
           <t>ミツイワ㈱★</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>4589633</v>
       </c>
-      <c r="N15" t="n">
-        <v>1</v>
-      </c>
       <c r="O15" t="n">
-        <v>4589633</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>4589633</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>4589633</v>
       </c>
       <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
         <v>4589633</v>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>4589633</v>
       </c>
-      <c r="U15" t="n">
-        <v>1</v>
-      </c>
       <c r="V15" t="n">
+        <v>1</v>
+      </c>
+      <c r="W15" t="n">
         <v>4589633</v>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z15" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA15" t="inlineStr">
+      <c r="AA15" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AE15" t="n">
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AF15" t="n">
         <v>4589633</v>
       </c>
-      <c r="AF15" t="n">
-        <v>1</v>
-      </c>
       <c r="AG15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH15" t="n">
         <v>4589633</v>
       </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>2022-06-29 12:00:00</t>
+          <t>2022-06-28 09:00:00</t>
         </is>
       </c>
       <c r="AL15" t="n">
@@ -3049,7 +3035,7 @@
       </c>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
@@ -3076,7 +3062,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -3118,103 +3104,101 @@
           <t>ミツイワ㈱★</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>2215655</v>
       </c>
-      <c r="N16" t="n">
-        <v>1</v>
-      </c>
       <c r="O16" t="n">
-        <v>2215655</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>2215655</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>2215655</v>
       </c>
       <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
         <v>2215655</v>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>2215655</v>
       </c>
-      <c r="U16" t="n">
-        <v>1</v>
-      </c>
       <c r="V16" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" t="n">
         <v>2215655</v>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="Z16" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z16" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA16" t="inlineStr">
+      <c r="AA16" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB16" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AE16" t="n">
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AF16" t="n">
         <v>2215655</v>
       </c>
-      <c r="AF16" t="n">
-        <v>1</v>
-      </c>
       <c r="AG16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH16" t="n">
         <v>2215655</v>
       </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>2022-07-28 12:00:00</t>
+          <t>2022-07-27 09:00:00</t>
         </is>
       </c>
       <c r="AL16" t="n">
@@ -3255,7 +3239,7 @@
       </c>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
@@ -3282,7 +3266,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -3324,103 +3308,101 @@
           <t>ミツイワ㈱★</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>2655489</v>
       </c>
-      <c r="N17" t="n">
-        <v>1</v>
-      </c>
       <c r="O17" t="n">
-        <v>2655489</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>2655489</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>2655489</v>
       </c>
       <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
         <v>2655489</v>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>2655489</v>
       </c>
-      <c r="U17" t="n">
-        <v>1</v>
-      </c>
       <c r="V17" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" t="n">
         <v>2655489</v>
       </c>
-      <c r="W17" t="inlineStr">
+      <c r="X17" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="Z17" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z17" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA17" t="inlineStr">
+      <c r="AA17" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB17" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AE17" t="n">
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AF17" t="n">
         <v>2655489</v>
       </c>
-      <c r="AF17" t="n">
-        <v>1</v>
-      </c>
       <c r="AG17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH17" t="n">
         <v>2655489</v>
       </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>2022-08-30 12:00:00</t>
+          <t>2022-08-29 09:00:00</t>
         </is>
       </c>
       <c r="AL17" t="n">
@@ -3461,7 +3443,7 @@
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
@@ -3488,7 +3470,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -3530,103 +3512,101 @@
           <t>ミツイワ㈱★</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>2655489</v>
       </c>
-      <c r="N18" t="n">
-        <v>1</v>
-      </c>
       <c r="O18" t="n">
-        <v>2655489</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>2655489</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>2655489</v>
       </c>
       <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
         <v>2655489</v>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>2655489</v>
       </c>
-      <c r="U18" t="n">
-        <v>1</v>
-      </c>
       <c r="V18" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" t="n">
         <v>2655489</v>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="Y18" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="Z18" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z18" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA18" t="inlineStr">
+      <c r="AA18" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB18" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AE18" t="n">
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AF18" t="n">
         <v>2655489</v>
       </c>
-      <c r="AF18" t="n">
-        <v>1</v>
-      </c>
       <c r="AG18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH18" t="n">
         <v>2655489</v>
       </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>2022-09-29 12:00:00</t>
+          <t>2022-09-28 09:00:00</t>
         </is>
       </c>
       <c r="AL18" t="n">
@@ -3667,7 +3647,7 @@
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
@@ -3694,7 +3674,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -3736,67 +3716,65 @@
           <t>ミツイワ㈱★</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr">
+      <c r="X19" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr">
+      <c r="Y19" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="Z19" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z19" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA19" t="inlineStr">
+      <c r="AA19" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB19" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AH19" t="inlineStr">
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>2022-10-26 12:00:00</t>
+          <t>2022-10-25 09:00:00</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
@@ -3819,7 +3797,7 @@
       </c>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
@@ -3846,7 +3824,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -3888,67 +3866,65 @@
           <t>ミツイワ㈱★</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr">
+      <c r="X20" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X20" t="inlineStr">
+      <c r="Y20" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr">
+      <c r="Z20" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z20" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA20" t="inlineStr">
+      <c r="AA20" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB20" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AH20" t="inlineStr">
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>2022-11-29 12:00:00</t>
+          <t>2022-11-28 09:00:00</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
@@ -3971,7 +3947,7 @@
       </c>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
@@ -3998,7 +3974,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -4040,67 +4016,65 @@
           <t>ミツイワ㈱★</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
+      <c r="X21" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X21" t="inlineStr">
+      <c r="Y21" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y21" t="inlineStr">
+      <c r="Z21" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z21" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA21" t="inlineStr">
+      <c r="AA21" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB21" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AH21" t="inlineStr">
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>2022-12-27 12:00:00</t>
+          <t>2022-12-26 09:00:00</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
@@ -4123,7 +4097,7 @@
       </c>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
@@ -4150,7 +4124,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -4192,67 +4166,65 @@
           <t>ミツイワ㈱★</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr">
+      <c r="X22" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr">
+      <c r="Y22" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr">
+      <c r="Z22" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z22" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA22" t="inlineStr">
+      <c r="AA22" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB22" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD22" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AH22" t="inlineStr">
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>2023-01-30 12:00:00</t>
+          <t>2023-01-29 09:00:00</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
@@ -4275,7 +4247,7 @@
       </c>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
@@ -4302,7 +4274,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -4344,103 +4316,101 @@
           <t>ソフトバンク㈱</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>2300105</v>
       </c>
-      <c r="N23" t="n">
-        <v>1</v>
-      </c>
       <c r="O23" t="n">
-        <v>2300105</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>2300105</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>2300105</v>
       </c>
       <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
         <v>2300105</v>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>2300105</v>
       </c>
-      <c r="U23" t="n">
-        <v>1</v>
-      </c>
       <c r="V23" t="n">
+        <v>1</v>
+      </c>
+      <c r="W23" t="n">
         <v>2300105</v>
       </c>
-      <c r="W23" t="inlineStr">
+      <c r="X23" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr">
+      <c r="Y23" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr">
+      <c r="Z23" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z23" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA23" t="inlineStr">
+      <c r="AA23" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB23" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD23" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AE23" t="n">
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AF23" t="n">
         <v>2300105</v>
       </c>
-      <c r="AF23" t="n">
-        <v>1</v>
-      </c>
       <c r="AG23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH23" t="n">
         <v>2300105</v>
       </c>
-      <c r="AH23" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>2022-05-30 06:00:00</t>
+          <t>2022-05-29 03:00:00</t>
         </is>
       </c>
       <c r="AL23" t="n">
@@ -4481,7 +4451,7 @@
       </c>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
@@ -4508,7 +4478,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -4550,103 +4520,101 @@
           <t>ソフトバンク㈱</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>1985658</v>
       </c>
-      <c r="N24" t="n">
-        <v>1</v>
-      </c>
       <c r="O24" t="n">
-        <v>1985658</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
         <v>1985658</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>1985658</v>
       </c>
       <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
         <v>1985658</v>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>1985658</v>
       </c>
-      <c r="U24" t="n">
-        <v>1</v>
-      </c>
       <c r="V24" t="n">
+        <v>1</v>
+      </c>
+      <c r="W24" t="n">
         <v>1985658</v>
       </c>
-      <c r="W24" t="inlineStr">
+      <c r="X24" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X24" t="inlineStr">
+      <c r="Y24" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y24" t="inlineStr">
+      <c r="Z24" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z24" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA24" t="inlineStr">
+      <c r="AA24" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB24" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AE24" t="n">
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AF24" t="n">
         <v>1985658</v>
       </c>
-      <c r="AF24" t="n">
-        <v>1</v>
-      </c>
       <c r="AG24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH24" t="n">
         <v>1985658</v>
       </c>
-      <c r="AH24" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>2022-06-29 12:00:00</t>
+          <t>2022-06-28 09:00:00</t>
         </is>
       </c>
       <c r="AL24" t="n">
@@ -4687,7 +4655,7 @@
       </c>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
@@ -4714,7 +4682,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -4756,103 +4724,101 @@
           <t>ソフトバンク㈱</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>1856322</v>
       </c>
-      <c r="N25" t="n">
-        <v>1</v>
-      </c>
       <c r="O25" t="n">
-        <v>1856322</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>1856322</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>1856322</v>
       </c>
       <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
         <v>1856322</v>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="T25" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>1856322</v>
       </c>
-      <c r="U25" t="n">
-        <v>1</v>
-      </c>
       <c r="V25" t="n">
+        <v>1</v>
+      </c>
+      <c r="W25" t="n">
         <v>1856322</v>
       </c>
-      <c r="W25" t="inlineStr">
+      <c r="X25" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X25" t="inlineStr">
+      <c r="Y25" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y25" t="inlineStr">
+      <c r="Z25" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z25" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA25" t="inlineStr">
+      <c r="AA25" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB25" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD25" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AE25" t="n">
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AF25" t="n">
         <v>1856322</v>
       </c>
-      <c r="AF25" t="n">
-        <v>1</v>
-      </c>
       <c r="AG25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH25" t="n">
         <v>1856322</v>
       </c>
-      <c r="AH25" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>2022-07-28 12:00:00</t>
+          <t>2022-07-27 09:00:00</t>
         </is>
       </c>
       <c r="AL25" t="n">
@@ -4893,7 +4859,7 @@
       </c>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
@@ -4920,7 +4886,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -4962,103 +4928,101 @@
           <t>ソフトバンク㈱</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>1856322</v>
       </c>
-      <c r="N26" t="n">
-        <v>1</v>
-      </c>
       <c r="O26" t="n">
-        <v>1856322</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
         <v>1856322</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>1856322</v>
       </c>
       <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
         <v>1856322</v>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="T26" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>1856322</v>
       </c>
-      <c r="U26" t="n">
-        <v>1</v>
-      </c>
       <c r="V26" t="n">
+        <v>1</v>
+      </c>
+      <c r="W26" t="n">
         <v>1856322</v>
       </c>
-      <c r="W26" t="inlineStr">
+      <c r="X26" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X26" t="inlineStr">
+      <c r="Y26" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y26" t="inlineStr">
+      <c r="Z26" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z26" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA26" t="inlineStr">
+      <c r="AA26" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB26" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD26" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AE26" t="n">
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AF26" t="n">
         <v>1856322</v>
       </c>
-      <c r="AF26" t="n">
-        <v>1</v>
-      </c>
       <c r="AG26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH26" t="n">
         <v>1856322</v>
       </c>
-      <c r="AH26" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>2022-08-30 12:00:00</t>
+          <t>2022-08-29 09:00:00</t>
         </is>
       </c>
       <c r="AL26" t="n">
@@ -5099,7 +5063,7 @@
       </c>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
@@ -5126,7 +5090,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -5168,103 +5132,101 @@
           <t>ソフトバンク㈱</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>1225423</v>
       </c>
-      <c r="N27" t="n">
-        <v>1</v>
-      </c>
       <c r="O27" t="n">
-        <v>1225423</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>1225423</v>
       </c>
       <c r="Q27" t="n">
-        <v>1</v>
+        <v>1225423</v>
       </c>
       <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
         <v>1225423</v>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>1225423</v>
       </c>
-      <c r="U27" t="n">
-        <v>1</v>
-      </c>
       <c r="V27" t="n">
+        <v>1</v>
+      </c>
+      <c r="W27" t="n">
         <v>1225423</v>
       </c>
-      <c r="W27" t="inlineStr">
+      <c r="X27" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X27" t="inlineStr">
+      <c r="Y27" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y27" t="inlineStr">
+      <c r="Z27" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z27" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA27" t="inlineStr">
+      <c r="AA27" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB27" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD27" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AE27" t="n">
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AF27" t="n">
         <v>1225423</v>
       </c>
-      <c r="AF27" t="n">
-        <v>1</v>
-      </c>
       <c r="AG27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH27" t="n">
         <v>1225423</v>
       </c>
-      <c r="AH27" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>2022-09-29 12:00:00</t>
+          <t>2022-09-28 09:00:00</t>
         </is>
       </c>
       <c r="AL27" t="n">
@@ -5305,7 +5267,7 @@
       </c>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
@@ -5332,7 +5294,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -5374,67 +5336,65 @@
           <t>ソフトバンク㈱</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="T28" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr">
+      <c r="X28" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X28" t="inlineStr">
+      <c r="Y28" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y28" t="inlineStr">
+      <c r="Z28" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z28" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA28" t="inlineStr">
+      <c r="AA28" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB28" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD28" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AH28" t="inlineStr">
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>2022-10-26 12:00:00</t>
+          <t>2022-10-25 09:00:00</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
@@ -5457,7 +5417,7 @@
       </c>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
@@ -5484,7 +5444,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -5526,67 +5486,65 @@
           <t>ソフトバンク㈱</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="T29" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr">
+      <c r="X29" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X29" t="inlineStr">
+      <c r="Y29" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y29" t="inlineStr">
+      <c r="Z29" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z29" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA29" t="inlineStr">
+      <c r="AA29" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB29" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AH29" t="inlineStr">
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>2022-11-29 12:00:00</t>
+          <t>2022-11-28 09:00:00</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
@@ -5609,7 +5567,7 @@
       </c>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
@@ -5636,7 +5594,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -5678,67 +5636,65 @@
           <t>ソフトバンク㈱</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="T30" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr">
+      <c r="X30" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X30" t="inlineStr">
+      <c r="Y30" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y30" t="inlineStr">
+      <c r="Z30" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z30" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA30" t="inlineStr">
+      <c r="AA30" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB30" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD30" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AH30" t="inlineStr">
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>2022-12-27 12:00:00</t>
+          <t>2022-12-26 09:00:00</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
@@ -5761,7 +5717,7 @@
       </c>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
@@ -5788,7 +5744,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -5830,67 +5786,65 @@
           <t>ソフトバンク㈱</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="T31" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr">
+      <c r="X31" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X31" t="inlineStr">
+      <c r="Y31" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y31" t="inlineStr">
+      <c r="Z31" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z31" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA31" t="inlineStr">
+      <c r="AA31" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB31" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD31" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AH31" t="inlineStr">
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>2023-01-30 12:00:00</t>
+          <t>2023-01-29 09:00:00</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
@@ -5913,7 +5867,7 @@
       </c>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
@@ -5940,7 +5894,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -5984,7 +5938,7 @@
       </c>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>2022-10-05 20:55:12.146166</t>
+          <t>2022-10-04 17:55:12.146166</t>
         </is>
       </c>
       <c r="AY32" t="n">
@@ -6001,7 +5955,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -6043,103 +5997,101 @@
           <t>㈱大塚商会</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>3260510</v>
-      </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="O33" t="n">
-        <v>3260510</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
         <v>3260510</v>
       </c>
       <c r="Q33" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="R33" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="S33" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="T33" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="T33" t="n">
-        <v>3260510</v>
-      </c>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="V33" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="W33" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="W33" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="X33" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X33" t="inlineStr">
+      <c r="Y33" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y33" t="inlineStr">
+      <c r="Z33" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z33" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA33" t="inlineStr">
+      <c r="AA33" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB33" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD33" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AE33" t="n">
-        <v>3260510</v>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
       </c>
       <c r="AF33" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="AG33" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AH33" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>3260510</v>
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>2022-05-30 06:00:00</t>
+          <t>2022-05-29 03:00:00</t>
         </is>
       </c>
       <c r="AL33" t="n">
@@ -6180,7 +6132,7 @@
       </c>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
@@ -6207,7 +6159,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -6249,103 +6201,101 @@
           <t>㈱大塚商会</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>3260510</v>
-      </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="O34" t="n">
-        <v>3260510</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
         <v>3260510</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="R34" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="S34" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="T34" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="T34" t="n">
-        <v>3260510</v>
-      </c>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="V34" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="W34" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="W34" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="X34" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X34" t="inlineStr">
+      <c r="Y34" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y34" t="inlineStr">
+      <c r="Z34" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z34" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA34" t="inlineStr">
+      <c r="AA34" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB34" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD34" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AE34" t="n">
-        <v>3260510</v>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
       </c>
       <c r="AF34" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="AG34" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AH34" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>3260510</v>
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>2022-06-29 12:00:00</t>
+          <t>2022-06-28 09:00:00</t>
         </is>
       </c>
       <c r="AL34" t="n">
@@ -6386,7 +6336,7 @@
       </c>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
@@ -6413,7 +6363,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -6455,103 +6405,101 @@
           <t>㈱大塚商会</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>3260510</v>
-      </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="O35" t="n">
-        <v>3260510</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>3260510</v>
       </c>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="R35" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="S35" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="T35" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="T35" t="n">
-        <v>3260510</v>
-      </c>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="V35" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="W35" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="W35" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="X35" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X35" t="inlineStr">
+      <c r="Y35" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y35" t="inlineStr">
+      <c r="Z35" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z35" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA35" t="inlineStr">
+      <c r="AA35" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB35" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD35" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AE35" t="n">
-        <v>3260510</v>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
       </c>
       <c r="AF35" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="AG35" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>3260510</v>
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>2022-07-28 12:00:00</t>
+          <t>2022-07-27 09:00:00</t>
         </is>
       </c>
       <c r="AL35" t="n">
@@ -6592,7 +6540,7 @@
       </c>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
@@ -6619,7 +6567,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -6661,103 +6609,101 @@
           <t>㈱大塚商会</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>3260510</v>
-      </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="O36" t="n">
-        <v>3260510</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
         <v>3260510</v>
       </c>
       <c r="Q36" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="R36" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="S36" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="T36" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="T36" t="n">
-        <v>3260510</v>
-      </c>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="V36" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="W36" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="W36" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="X36" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X36" t="inlineStr">
+      <c r="Y36" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y36" t="inlineStr">
+      <c r="Z36" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z36" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA36" t="inlineStr">
+      <c r="AA36" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB36" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD36" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AE36" t="n">
-        <v>3260510</v>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
       </c>
       <c r="AF36" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="AG36" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>3260510</v>
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>2022-08-30 12:00:00</t>
+          <t>2022-08-29 09:00:00</t>
         </is>
       </c>
       <c r="AL36" t="n">
@@ -6798,7 +6744,7 @@
       </c>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
@@ -6825,7 +6771,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -6867,103 +6813,101 @@
           <t>㈱大塚商会</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>3260510</v>
-      </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="O37" t="n">
-        <v>3260510</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
         <v>3260510</v>
       </c>
       <c r="Q37" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="R37" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="S37" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="T37" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="T37" t="n">
-        <v>3260510</v>
-      </c>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="V37" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="W37" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="W37" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="X37" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X37" t="inlineStr">
+      <c r="Y37" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y37" t="inlineStr">
+      <c r="Z37" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z37" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA37" t="inlineStr">
+      <c r="AA37" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB37" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD37" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AE37" t="n">
-        <v>3260510</v>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
       </c>
       <c r="AF37" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="AG37" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AH37" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>3260510</v>
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>2022-09-29 12:00:00</t>
+          <t>2022-09-28 09:00:00</t>
         </is>
       </c>
       <c r="AL37" t="n">
@@ -7004,7 +6948,7 @@
       </c>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
@@ -7031,7 +6975,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -7073,103 +7017,101 @@
           <t>㈱大塚商会</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>3260510</v>
-      </c>
       <c r="N38" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="O38" t="n">
-        <v>3260510</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
         <v>3260510</v>
       </c>
       <c r="Q38" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="R38" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="S38" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="T38" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="T38" t="n">
-        <v>3260510</v>
-      </c>
       <c r="U38" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="V38" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="W38" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="W38" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="X38" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X38" t="inlineStr">
+      <c r="Y38" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y38" t="inlineStr">
+      <c r="Z38" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z38" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA38" t="inlineStr">
+      <c r="AA38" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB38" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD38" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AE38" t="n">
-        <v>3260510</v>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
       </c>
       <c r="AF38" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="AG38" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AH38" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>3260510</v>
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>2022-10-26 12:00:00</t>
+          <t>2022-10-25 09:00:00</t>
         </is>
       </c>
       <c r="AL38" t="n">
@@ -7210,7 +7152,7 @@
       </c>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
@@ -7237,7 +7179,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
@@ -7279,103 +7221,101 @@
           <t>㈱大塚商会</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>3260510</v>
-      </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="O39" t="n">
-        <v>3260510</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
         <v>3260510</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="R39" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="S39" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="T39" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="T39" t="n">
-        <v>3260510</v>
-      </c>
       <c r="U39" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="V39" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="W39" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="W39" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="X39" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X39" t="inlineStr">
+      <c r="Y39" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y39" t="inlineStr">
+      <c r="Z39" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z39" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA39" t="inlineStr">
+      <c r="AA39" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB39" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD39" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AE39" t="n">
-        <v>3260510</v>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
       </c>
       <c r="AF39" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="AG39" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AH39" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>3260510</v>
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>2022-11-29 12:00:00</t>
+          <t>2022-11-28 09:00:00</t>
         </is>
       </c>
       <c r="AL39" t="n">
@@ -7416,7 +7356,7 @@
       </c>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
@@ -7443,7 +7383,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
@@ -7485,103 +7425,101 @@
           <t>㈱大塚商会</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>3260510</v>
-      </c>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="O40" t="n">
-        <v>3260510</v>
+        <v>1</v>
       </c>
       <c r="P40" t="n">
         <v>3260510</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="R40" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="S40" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="T40" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="T40" t="n">
-        <v>3260510</v>
-      </c>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="V40" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="W40" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="W40" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="X40" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X40" t="inlineStr">
+      <c r="Y40" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y40" t="inlineStr">
+      <c r="Z40" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z40" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA40" t="inlineStr">
+      <c r="AA40" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB40" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD40" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AE40" t="n">
-        <v>3260510</v>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
       </c>
       <c r="AF40" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="AG40" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AH40" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>3260510</v>
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
-          <t>2022-12-27 12:00:00</t>
+          <t>2022-12-26 09:00:00</t>
         </is>
       </c>
       <c r="AL40" t="n">
@@ -7622,7 +7560,7 @@
       </c>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
@@ -7649,7 +7587,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
@@ -7691,103 +7629,101 @@
           <t>㈱大塚商会</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>3260510</v>
-      </c>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="O41" t="n">
-        <v>3260510</v>
+        <v>1</v>
       </c>
       <c r="P41" t="n">
         <v>3260510</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="R41" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="S41" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="T41" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="T41" t="n">
-        <v>3260510</v>
-      </c>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="V41" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="W41" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="W41" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="X41" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X41" t="inlineStr">
+      <c r="Y41" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y41" t="inlineStr">
+      <c r="Z41" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z41" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA41" t="inlineStr">
+      <c r="AA41" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB41" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD41" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AE41" t="n">
-        <v>3260510</v>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
       </c>
       <c r="AF41" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="AG41" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AH41" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>3260510</v>
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ41" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK41" t="inlineStr">
         <is>
-          <t>2023-01-30 12:00:00</t>
+          <t>2023-01-29 09:00:00</t>
         </is>
       </c>
       <c r="AL41" t="n">
@@ -7828,7 +7764,7 @@
       </c>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
@@ -7855,7 +7791,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
@@ -7899,7 +7835,7 @@
       </c>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>2022-10-05 20:55:12.146166</t>
+          <t>2022-10-04 17:55:12.146166</t>
         </is>
       </c>
       <c r="AY42" t="n">
@@ -7916,7 +7852,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
@@ -7958,103 +7894,101 @@
           <t>コムテック㈱</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L43" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>3260510</v>
-      </c>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="O43" t="n">
-        <v>3260510</v>
+        <v>1</v>
       </c>
       <c r="P43" t="n">
         <v>3260510</v>
       </c>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="R43" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="S43" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="T43" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="T43" t="n">
-        <v>3260510</v>
-      </c>
       <c r="U43" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="V43" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="W43" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="W43" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="X43" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X43" t="inlineStr">
+      <c r="Y43" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y43" t="inlineStr">
+      <c r="Z43" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z43" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA43" t="inlineStr">
+      <c r="AA43" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB43" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD43" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AE43" t="n">
-        <v>3260510</v>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
       </c>
       <c r="AF43" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="AG43" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AH43" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>3260510</v>
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>2022-05-30 06:00:00</t>
+          <t>2022-05-29 03:00:00</t>
         </is>
       </c>
       <c r="AL43" t="n">
@@ -8095,7 +8029,7 @@
       </c>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
@@ -8122,7 +8056,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -8164,103 +8098,101 @@
           <t>コムテック㈱</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L44" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>3260510</v>
-      </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="O44" t="n">
-        <v>3260510</v>
+        <v>1</v>
       </c>
       <c r="P44" t="n">
         <v>3260510</v>
       </c>
       <c r="Q44" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="R44" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="S44" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="T44" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="T44" t="n">
-        <v>3260510</v>
-      </c>
       <c r="U44" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="V44" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="W44" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="W44" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="X44" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X44" t="inlineStr">
+      <c r="Y44" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y44" t="inlineStr">
+      <c r="Z44" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z44" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA44" t="inlineStr">
+      <c r="AA44" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB44" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD44" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AE44" t="n">
-        <v>3260510</v>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
       </c>
       <c r="AF44" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="AG44" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AH44" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>3260510</v>
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>2022-06-29 12:00:00</t>
+          <t>2022-06-28 09:00:00</t>
         </is>
       </c>
       <c r="AL44" t="n">
@@ -8301,7 +8233,7 @@
       </c>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
@@ -8328,7 +8260,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -8370,103 +8302,101 @@
           <t>コムテック㈱</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L45" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>3260510</v>
-      </c>
       <c r="N45" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="O45" t="n">
-        <v>3260510</v>
+        <v>1</v>
       </c>
       <c r="P45" t="n">
         <v>3260510</v>
       </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="R45" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="S45" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="T45" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="T45" t="n">
-        <v>3260510</v>
-      </c>
       <c r="U45" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="V45" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="W45" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="W45" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="X45" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X45" t="inlineStr">
+      <c r="Y45" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y45" t="inlineStr">
+      <c r="Z45" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z45" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA45" t="inlineStr">
+      <c r="AA45" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB45" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD45" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AE45" t="n">
-        <v>3260510</v>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
       </c>
       <c r="AF45" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="AG45" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AH45" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>3260510</v>
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK45" t="inlineStr">
         <is>
-          <t>2022-07-28 12:00:00</t>
+          <t>2022-07-27 09:00:00</t>
         </is>
       </c>
       <c r="AL45" t="n">
@@ -8507,7 +8437,7 @@
       </c>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
@@ -8534,7 +8464,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
@@ -8576,103 +8506,101 @@
           <t>コムテック㈱</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>3260510</v>
-      </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="O46" t="n">
-        <v>3260510</v>
+        <v>1</v>
       </c>
       <c r="P46" t="n">
         <v>3260510</v>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="R46" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="S46" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="T46" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="T46" t="n">
-        <v>3260510</v>
-      </c>
       <c r="U46" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="V46" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="W46" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="W46" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="X46" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X46" t="inlineStr">
+      <c r="Y46" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y46" t="inlineStr">
+      <c r="Z46" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z46" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA46" t="inlineStr">
+      <c r="AA46" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB46" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD46" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AE46" t="n">
-        <v>3260510</v>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
       </c>
       <c r="AF46" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="AG46" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AH46" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>3260510</v>
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ46" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK46" t="inlineStr">
         <is>
-          <t>2022-08-30 12:00:00</t>
+          <t>2022-08-29 09:00:00</t>
         </is>
       </c>
       <c r="AL46" t="n">
@@ -8713,7 +8641,7 @@
       </c>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
@@ -8740,7 +8668,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -8782,103 +8710,101 @@
           <t>コムテック㈱</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L47" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>3260510</v>
-      </c>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="O47" t="n">
-        <v>3260510</v>
+        <v>1</v>
       </c>
       <c r="P47" t="n">
         <v>3260510</v>
       </c>
       <c r="Q47" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="R47" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="S47" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="T47" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="T47" t="n">
-        <v>3260510</v>
-      </c>
       <c r="U47" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="V47" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="W47" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="W47" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="X47" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X47" t="inlineStr">
+      <c r="Y47" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y47" t="inlineStr">
+      <c r="Z47" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z47" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA47" t="inlineStr">
+      <c r="AA47" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB47" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD47" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AE47" t="n">
-        <v>3260510</v>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE47" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
       </c>
       <c r="AF47" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="AG47" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AH47" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>3260510</v>
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ47" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK47" t="inlineStr">
         <is>
-          <t>2022-09-29 12:00:00</t>
+          <t>2022-09-28 09:00:00</t>
         </is>
       </c>
       <c r="AL47" t="n">
@@ -8919,7 +8845,7 @@
       </c>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
@@ -8946,7 +8872,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -8988,103 +8914,101 @@
           <t>コムテック㈱</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L48" t="n">
+        <v>10080</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>資本準備金</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>3260510</v>
-      </c>
       <c r="N48" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="O48" t="n">
-        <v>3260510</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
         <v>3260510</v>
       </c>
       <c r="Q48" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="R48" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="S48" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="T48" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364524384、https://advantec-group.ent.box.com/file/925858622263</t>
         </is>
       </c>
-      <c r="T48" t="n">
-        <v>3260510</v>
-      </c>
       <c r="U48" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="V48" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="W48" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="W48" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="X48" t="inlineStr">
         <is>
           <t>2022-0654</t>
         </is>
       </c>
-      <c r="X48" t="inlineStr">
+      <c r="Y48" t="inlineStr">
         <is>
           <t>https://advantec-group.ent.box.com/file/925364706508</t>
         </is>
       </c>
-      <c r="Y48" t="inlineStr">
+      <c r="Z48" t="inlineStr">
         <is>
           <t>稟議-2022-0654</t>
         </is>
       </c>
-      <c r="Z48" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AA48" t="inlineStr">
+      <c r="AA48" t="n">
+        <v>3260510</v>
+      </c>
+      <c r="AB48" t="inlineStr">
         <is>
           <t>2270-059204</t>
         </is>
       </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AD48" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
-      </c>
-      <c r="AE48" t="n">
-        <v>3260510</v>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
+      </c>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
+        </is>
       </c>
       <c r="AF48" t="n">
-        <v>1</v>
+        <v>3260510</v>
       </c>
       <c r="AG48" t="n">
-        <v>3260510</v>
-      </c>
-      <c r="AH48" t="inlineStr">
-        <is>
-          <t>https://advantec-group.ent.box.com/file/925364524384</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>3260510</v>
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>2022-09-23 12:00:00</t>
+          <t>https://advantec-group.ent.box.com/file/925364524384</t>
         </is>
       </c>
       <c r="AJ48" t="inlineStr">
         <is>
-          <t>2022-11-22 12:00:00</t>
+          <t>2022-09-22 09:00:00</t>
         </is>
       </c>
       <c r="AK48" t="inlineStr">
         <is>
-          <t>2022-10-26 12:00:00</t>
+          <t>2022-10-25 09:00:00</t>
         </is>
       </c>
       <c r="AL48" t="n">
@@ -9125,7 +9049,7 @@
       </c>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>2022-09-01 12:00:00</t>
+          <t>2022-08-31 09:00:00</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
@@ -9152,7 +9076,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
@@ -9196,7 +9120,7 @@
       </c>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>2022-10-05 20:55:12.146166</t>
+          <t>2022-10-04 17:55:12.146166</t>
         </is>
       </c>
       <c r="AY49" t="n">
@@ -9209,6 +9133,190 @@
       </c>
       <c r="BB49" t="n">
         <v>48</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>50</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>20</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>案件無効状態</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>S22-080</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>無効案件てすと2</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>100002</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ミツイワ㈱</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>10001</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>現金</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW50" t="inlineStr">
+        <is>
+          <t>2022-10-18 13:46:47.847699</t>
+        </is>
+      </c>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>araki</t>
+        </is>
+      </c>
+      <c r="AY50" t="n">
+        <v>90001</v>
+      </c>
+      <c r="AZ50" t="inlineStr">
+        <is>
+          <t>伊豆猛</t>
+        </is>
+      </c>
+      <c r="BB50" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>51</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>20</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>案件無効状態</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>S22-100</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>無効案件てすと3</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>100002</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>ミツイワ㈱</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>10001</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>現金</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW51" t="inlineStr">
+        <is>
+          <t>2022-10-18 14:50:05.765545</t>
+        </is>
+      </c>
+      <c r="AX51" t="inlineStr">
+        <is>
+          <t>araki</t>
+        </is>
+      </c>
+      <c r="AY51" t="n">
+        <v>90001</v>
+      </c>
+      <c r="AZ51" t="inlineStr">
+        <is>
+          <t>伊豆猛</t>
+        </is>
+      </c>
+      <c r="BB51" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
